--- a/Fase 1/Evidencias Grupales/Plan de Trabajo Proyecto APT.xlsx
+++ b/Fase 1/Evidencias Grupales/Plan de Trabajo Proyecto APT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="157">
   <si>
     <t xml:space="preserve">Plan de Trabajo Proyecto APT
 </t>
@@ -56,7 +56,7 @@
     <t>Planificación del Proyecto (Sprint 0)</t>
   </si>
   <si>
-    <t>Tableros Kanban (trello) o herramientas de seguimiento</t>
+    <t>1. Tableros Kanban (trello) o herramientas de seguimiento</t>
   </si>
   <si>
     <t>Implementación de tableros Kanban para el seguimiento del proyecto.</t>
@@ -74,7 +74,7 @@
     <t>Gestión de proyectos</t>
   </si>
   <si>
-    <t>GITHUB de proyecto y evidencias</t>
+    <t>2. GITHUB de proyecto y evidencias</t>
   </si>
   <si>
     <t>Configuración del repositorio en GitHub y carga de evidencias.</t>
@@ -86,7 +86,7 @@
     <t>Control de versiones</t>
   </si>
   <si>
-    <t>Visión del proyecto</t>
+    <t>3. Visión del proyecto</t>
   </si>
   <si>
     <t>Definición y documentación de la visión del proyecto.</t>
@@ -101,7 +101,7 @@
     <t>Planificación estratégica</t>
   </si>
   <si>
-    <t xml:space="preserve"> Épicas</t>
+    <t>4. Épicas</t>
   </si>
   <si>
     <t>Definición de épicas para el desarrollo del proyecto.</t>
@@ -113,7 +113,7 @@
     <t>Gestión de requisitos</t>
   </si>
   <si>
-    <t>Historias de usuario</t>
+    <t>5. Historias de usuario</t>
   </si>
   <si>
     <t>Redacción y priorización de historias de usuario.</t>
@@ -122,7 +122,7 @@
     <t>Desarrollo ágil</t>
   </si>
   <si>
-    <t xml:space="preserve"> Priorización de Épicas (Planning Poker)</t>
+    <t>6. Priorización de Épicas (Planning Poker)</t>
   </si>
   <si>
     <t>Evaluación y priorización de épicas mediante Planning Poker.</t>
@@ -131,7 +131,7 @@
     <t>Técnicas de priorización</t>
   </si>
   <si>
-    <t>Puntos de historia</t>
+    <t>7. Puntos de historia</t>
   </si>
   <si>
     <t>Asignación de puntos a historias de usuario para estimación.</t>
@@ -140,7 +140,7 @@
     <t>Estimación ágil</t>
   </si>
   <si>
-    <t>Sprint Planning</t>
+    <t>8. Sprint Planning</t>
   </si>
   <si>
     <t>Planificación del sprint, incluyendo tareas y asignación de recursos.</t>
@@ -149,7 +149,7 @@
     <t>Planificación de sprints</t>
   </si>
   <si>
-    <t xml:space="preserve"> Roadmap</t>
+    <t>9. Roadmap</t>
   </si>
   <si>
     <t>Creación del roadmap del proyecto con hitos y objetivos clave.</t>
@@ -158,184 +158,208 @@
     <t>Planificación a largo plazo</t>
   </si>
   <si>
-    <t>Sprint Backlog</t>
-  </si>
-  <si>
-    <t>Elaboración del backlog para el sprint actual.</t>
+    <t>10. Burnup chart</t>
+  </si>
+  <si>
+    <t>Creación de gráfico de progreso del sprint.</t>
+  </si>
+  <si>
+    <t>Seguimiento del progreso</t>
+  </si>
+  <si>
+    <t>11. Plan de comunicación</t>
+  </si>
+  <si>
+    <t>Desarrollo del plan de comunicación para el proyecto.</t>
+  </si>
+  <si>
+    <t>Comunicación del proyecto</t>
+  </si>
+  <si>
+    <t>12. Plan de Gestión de riesgos</t>
+  </si>
+  <si>
+    <t>Elaboración del plan de gestión de riesgos del proyecto.</t>
+  </si>
+  <si>
+    <t>Gestión de riesgos</t>
+  </si>
+  <si>
+    <t>13. Evidencias individuales Fase 1</t>
+  </si>
+  <si>
+    <t>Recopilación de evidencias individuales para la fase 1.</t>
+  </si>
+  <si>
+    <t>Documentación de proyecto</t>
+  </si>
+  <si>
+    <t>14. Evidencias Grupales Fase 1</t>
+  </si>
+  <si>
+    <t>Recopilación de evidencias grupales para la fase 1.</t>
+  </si>
+  <si>
+    <t>Desarrollo de funcionalidades principales (Sprint 1)</t>
+  </si>
+  <si>
+    <t>15. Product Backlog</t>
+  </si>
+  <si>
+    <t>Creación y gestión del backlog de producto.</t>
   </si>
   <si>
     <t>Gestión de backlog</t>
   </si>
   <si>
-    <t xml:space="preserve"> Burnup chart</t>
-  </si>
-  <si>
-    <t>Creación de gráfico de progreso del sprint.</t>
+    <t>16. Burndown chart</t>
+  </si>
+  <si>
+    <t>Creación del gráfico de avance del sprint.</t>
+  </si>
+  <si>
+    <t>17. Vistas 4+1</t>
+  </si>
+  <si>
+    <t>Desarrollo de vistas según el modelo 4+1.</t>
+  </si>
+  <si>
+    <t>Diseño arquitectónico</t>
+  </si>
+  <si>
+    <t>18. Diagramas de flujo</t>
+  </si>
+  <si>
+    <t>Creación de diagramas de flujo para procesos.</t>
+  </si>
+  <si>
+    <t>Documentación técnica</t>
+  </si>
+  <si>
+    <t>19. Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Creación y gestión de las tareas del producto.</t>
+  </si>
+  <si>
+    <t>Documentación del proyecto</t>
+  </si>
+  <si>
+    <t>20. CRUD</t>
+  </si>
+  <si>
+    <t>Implementación de operaciones CRUD en el sistema.</t>
+  </si>
+  <si>
+    <t>Desarrollo de funcionalidades</t>
+  </si>
+  <si>
+    <t>21. Prototipos interactivos</t>
+  </si>
+  <si>
+    <t>Desarrollo de prototipos interactivos para pruebas.</t>
+  </si>
+  <si>
+    <t>Diseño de interfaces</t>
+  </si>
+  <si>
+    <t>22. Modelo BBDD</t>
+  </si>
+  <si>
+    <t>Creación del modelo de base de datos.</t>
+  </si>
+  <si>
+    <t>Diseño de bases de datos</t>
+  </si>
+  <si>
+    <t>23. Test-driven development</t>
+  </si>
+  <si>
+    <t>Implementación de desarrollo guiado por pruebas.</t>
+  </si>
+  <si>
+    <t>Desarrollo de software</t>
+  </si>
+  <si>
+    <t>24. Pruebas unitarias, integración y aceptación</t>
+  </si>
+  <si>
+    <t>Realización de pruebas unitarias, integración y aceptación.</t>
+  </si>
+  <si>
+    <t>Control de calidad</t>
+  </si>
+  <si>
+    <t>25. Reunión de retrospectiva</t>
+  </si>
+  <si>
+    <t>Reunión para revisar el sprint y planificar mejoras.</t>
+  </si>
+  <si>
+    <t>Reuniones</t>
+  </si>
+  <si>
+    <t>Mejora continua</t>
+  </si>
+  <si>
+    <t>Desarrollo del modelo (Sprint 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26. Entendimiento del negocio </t>
+  </si>
+  <si>
+    <t>Desarrollo e implementación del modelo ARTEFACTO.</t>
   </si>
   <si>
     <t>Pendiente, 0%</t>
   </si>
   <si>
-    <t>Seguimiento del progreso</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pruebas unitarias, integración y aceptación</t>
-  </si>
-  <si>
-    <t>Realización de pruebas unitarias, integración y aceptación.</t>
-  </si>
-  <si>
-    <t>Control de calidad</t>
-  </si>
-  <si>
-    <t>Reunión de retrospectiva</t>
-  </si>
-  <si>
-    <t>Reunión para revisar el sprint y planificar mejoras.</t>
-  </si>
-  <si>
-    <t>Reuniones</t>
-  </si>
-  <si>
-    <t>Mejora continua</t>
-  </si>
-  <si>
-    <t>Evidencias individuales Fase 1</t>
-  </si>
-  <si>
-    <t>Recopilación de evidencias individuales para la fase 1.</t>
-  </si>
-  <si>
-    <t>Pendiente, 10%</t>
-  </si>
-  <si>
-    <t>Documentación de proyecto</t>
-  </si>
-  <si>
-    <t>Evidencias Grupales Fase 1</t>
-  </si>
-  <si>
-    <t>Recopilación de evidencias grupales para la fase 1.</t>
-  </si>
-  <si>
-    <t>Desarrollo de funcionalidades principales (Sprint 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Backlog</t>
-  </si>
-  <si>
-    <t>Creación y gestión del backlog de producto.</t>
-  </si>
-  <si>
-    <t>Burndown chart</t>
-  </si>
-  <si>
-    <t>Creación del gráfico de avance del sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vistas 4+1</t>
-  </si>
-  <si>
-    <t>Desarrollo de vistas según el modelo 4+1.</t>
-  </si>
-  <si>
-    <t>Diseño arquitectónico</t>
-  </si>
-  <si>
-    <t>Diagramas de flujo</t>
-  </si>
-  <si>
-    <t>Creación de diagramas de flujo para procesos.</t>
-  </si>
-  <si>
-    <t>Documentación técnica</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
-    <t>Implementación de operaciones CRUD en el sistema.</t>
-  </si>
-  <si>
-    <t>Desarrollo de funcionalidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prototipos interactivos</t>
-  </si>
-  <si>
-    <t>Desarrollo de prototipos interactivos para pruebas.</t>
-  </si>
-  <si>
-    <t>Diseño de interfaces</t>
-  </si>
-  <si>
-    <t>Modelo BBDD</t>
-  </si>
-  <si>
-    <t>Creación del modelo de base de datos.</t>
-  </si>
-  <si>
-    <t>Diseño de bases de datos</t>
-  </si>
-  <si>
-    <t>Test-driven development</t>
-  </si>
-  <si>
-    <t>Implementación de desarrollo guiado por pruebas.</t>
-  </si>
-  <si>
-    <t>Desarrollo de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Funcionalidades principales</t>
-  </si>
-  <si>
-    <t>Implementación de funcionalidades principales del sistema.</t>
-  </si>
-  <si>
-    <t>Pendiente, 60%</t>
-  </si>
-  <si>
-    <t>Desarrollo del modelo (Sprint 2)</t>
-  </si>
-  <si>
-    <t>Implementación del Modelo ARTEFACTO</t>
-  </si>
-  <si>
-    <t>Desarrollo e implementación del modelo ARTEFACTO.</t>
+    <t>27. Product Backlog</t>
+  </si>
+  <si>
+    <t>28. Burdowchart</t>
+  </si>
+  <si>
+    <t>29. Sprint Backlog</t>
+  </si>
+  <si>
+    <t>30. Análisis exploratorio</t>
+  </si>
+  <si>
+    <t>Desarrollo del análisis exploratorio de los datos</t>
+  </si>
+  <si>
+    <t>31. Entrenamiento del Modelo 1 (ARTEFACTO)</t>
+  </si>
+  <si>
+    <t>Entrenamiento del modelo con datos.</t>
   </si>
   <si>
     <t>Desarrollo de modelos</t>
   </si>
   <si>
-    <t>Entrenamiento del Modelo ARTEFACTO</t>
-  </si>
-  <si>
-    <t>Entrenamiento del modelo ARTEFACTO con datos.</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>Validación del Modelo ARTEFACTO</t>
-  </si>
-  <si>
-    <t>Validación del modelo ARTEFACTO con resultados esperados.</t>
+    <t>32. Entrenamiento del Modelo 2 (ARTEFACTO)</t>
+  </si>
+  <si>
+    <t>33. Validación de los Modelos (ARTEFACTO)</t>
+  </si>
+  <si>
+    <t>Validación del modelo con resultados esperados.</t>
   </si>
   <si>
     <t>Validación de modelos</t>
   </si>
   <si>
-    <t>Optimización del Modelo ARTEFACTO</t>
-  </si>
-  <si>
-    <t>Optimización del rendimiento del modelo ARTEFACTO.</t>
+    <t>34. Optimización de los Modelos (ARTEFACTO)</t>
+  </si>
+  <si>
+    <t>Optimización del rendimiento del modelo.</t>
   </si>
   <si>
     <t>Optimización de modelos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Integración del Modelo con Backend</t>
+    <t>35. Integración del Modelo con Backend</t>
   </si>
   <si>
     <t>Integración del modelo con el sistema backend.</t>
@@ -344,40 +368,58 @@
     <t>Integración de sistemas</t>
   </si>
   <si>
-    <t>Pruebas del Modelo ARTEFACTO</t>
-  </si>
-  <si>
-    <t>Realización de pruebas del modelo ARTEFACTO en el entorno de producción.</t>
-  </si>
-  <si>
-    <t>Documentación del Modelo</t>
+    <t>36. Gestion de Riesgos</t>
+  </si>
+  <si>
+    <t>Realización del seguimiento de los riesgos</t>
+  </si>
+  <si>
+    <t>37. Pruebas Unitarias, integración y aceptación</t>
+  </si>
+  <si>
+    <t>Desarrollo de las pruebas del modelo y sus funciones</t>
+  </si>
+  <si>
+    <t>38. Documentación del Modelo</t>
   </si>
   <si>
     <t>Desarrollo del documento del modelo y sus funciones</t>
   </si>
   <si>
-    <t>Evidencias del Sprint 2</t>
+    <t>39. Evidencias del Sprint 2</t>
   </si>
   <si>
     <t>Validacion del sprint</t>
   </si>
   <si>
-    <t>Documentación del proyecto</t>
-  </si>
-  <si>
-    <t>Revisión y Retroalimentación Sprint 2</t>
+    <t>40. Revisión y Retroalimentación Sprint 2</t>
+  </si>
+  <si>
+    <t>41. Reunión de retrospectiva</t>
+  </si>
+  <si>
+    <t>M -  V</t>
   </si>
   <si>
     <t>Testeo y pruebas de seguridad (Sprint 3 )</t>
   </si>
   <si>
-    <t>Definición de casos de prueba de seguridad</t>
+    <t>42. Product Backlog</t>
+  </si>
+  <si>
+    <t>43. Burdowchart</t>
+  </si>
+  <si>
+    <t>44. Sprint Backlog</t>
+  </si>
+  <si>
+    <t>45. Definición de casos de prueba de seguridad</t>
   </si>
   <si>
     <t>Desarrollo de los casos de prueba a realizar en el proyecto</t>
   </si>
   <si>
-    <t>Implementación de pruebas de seguridad</t>
+    <t>46. Implementación de pruebas de seguridad</t>
   </si>
   <si>
     <t xml:space="preserve">Implementacion o validacion de las pruebas de seguridad </t>
@@ -386,52 +428,70 @@
     <t>Seguridad del sistema</t>
   </si>
   <si>
-    <t>Testeo de seguridad</t>
+    <t>47. Testeo de seguridad</t>
   </si>
   <si>
     <t>Validacion o verificacion de vulnerabilidades</t>
   </si>
   <si>
-    <t>Testeo funcionalidad final</t>
+    <t>48. Testeo funcionalidad final</t>
   </si>
   <si>
     <t>Validacion o verificacion de Funciones</t>
   </si>
   <si>
-    <t>Revisión y corrección de errores</t>
+    <t>49. Gestion de Riesgos</t>
+  </si>
+  <si>
+    <t>50. Revisión y corrección de errores</t>
   </si>
   <si>
     <t>Documentacion de errores, vulneravilidades entre otras.</t>
   </si>
   <si>
-    <t>Validación final del sprint</t>
+    <t xml:space="preserve">51. Puesta en producción </t>
+  </si>
+  <si>
+    <t>Validación y aprobación del producto.</t>
+  </si>
+  <si>
+    <t>52.Validación final del sprint</t>
+  </si>
+  <si>
+    <t>53. Reunión de retrospectiva</t>
   </si>
   <si>
     <t>Documentación y Presentación Final</t>
   </si>
   <si>
-    <t>Documentación del Proyecto</t>
-  </si>
-  <si>
-    <t>Elaboración de la documentación final del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Presentación Final</t>
-  </si>
-  <si>
-    <t>Preparación y realización de la presentación final del proyecto.</t>
-  </si>
-  <si>
-    <t>Presentación de proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entrega de Evidencias Finales</t>
+    <t>55. Implementación de la marcha blanca</t>
+  </si>
+  <si>
+    <t>Documentación de la marcha blanca</t>
+  </si>
+  <si>
+    <t>56. Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Elaboración de la documentación  para el manual de usuario</t>
+  </si>
+  <si>
+    <t>57. Monitoreo de la marcha blanca</t>
+  </si>
+  <si>
+    <t>Documentación del monitreo</t>
+  </si>
+  <si>
+    <t>58. Recopilación y análisis de feedback</t>
+  </si>
+  <si>
+    <t>Información relevante del feedback</t>
+  </si>
+  <si>
+    <t>59. Revisión final y ajustes</t>
   </si>
   <si>
     <t>Entrega de todas las evidencias finales del proyecto.</t>
-  </si>
-  <si>
-    <t>Entrega de resultados</t>
   </si>
 </sst>
 </file>
@@ -442,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -483,6 +543,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -577,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -614,11 +679,26 @@
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -626,35 +706,92 @@
     <xf borderId="6" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -869,6 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -880,6 +1018,7 @@
     <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="7" max="7" width="16.5"/>
     <col customWidth="1" min="8" max="8" width="17.5"/>
+    <col customWidth="1" min="10" max="10" width="13.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -944,7 +1083,7 @@
         <v>45516.0</v>
       </c>
       <c r="E4" s="12">
-        <v>45538.0</v>
+        <v>45548.0</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
@@ -966,15 +1105,17 @@
       <c r="E5" s="15">
         <v>45516.0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
@@ -992,15 +1133,18 @@
       <c r="E6" s="15">
         <v>45516.0</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
@@ -1018,15 +1162,18 @@
       <c r="E7" s="15">
         <v>45524.0</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
@@ -1044,15 +1191,18 @@
       <c r="E8" s="15">
         <v>45526.0</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
@@ -1070,15 +1220,18 @@
       <c r="E9" s="15">
         <v>45526.0</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
@@ -1096,15 +1249,18 @@
       <c r="E10" s="15">
         <v>45526.0</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
@@ -1122,15 +1278,18 @@
       <c r="E11" s="15">
         <v>45527.0</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
@@ -1148,15 +1307,18 @@
       <c r="E12" s="15">
         <v>45531.0</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>41</v>
       </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
@@ -1174,15 +1336,18 @@
       <c r="E13" s="15">
         <v>45533.0</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
@@ -1192,23 +1357,26 @@
         <v>46</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="15">
-        <v>45534.0</v>
+        <v>45539.0</v>
       </c>
       <c r="E14" s="15">
-        <v>45534.0</v>
-      </c>
-      <c r="F14" s="14" t="s">
+        <v>45539.0</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
@@ -1218,939 +1386,1629 @@
         <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D15" s="15">
-        <v>45535.0</v>
+        <v>45542.0</v>
       </c>
       <c r="E15" s="15">
-        <v>45535.0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="14" t="s">
+        <v>45544.0</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15">
+        <v>45542.0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45544.0</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="15">
-        <v>45535.0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45535.0</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D17" s="15">
         <v>45537.0</v>
       </c>
       <c r="E17" s="15">
-        <v>45537.0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>50</v>
+        <v>45548.0</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="15">
+        <v>45538.0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45548.0</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="22">
+        <v>45526.0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>45538.0</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="15">
-        <v>45537.0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>45537.0</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="23">
+        <v>45526.0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>45526.0</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="15">
-        <v>45538.0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>45538.0</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="17">
-        <v>45526.0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>45538.0</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="15">
-        <v>45526.0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>45526.0</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="23">
+        <v>45528.0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>45528.0</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="15">
-        <v>45528.0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>45528.0</v>
+      <c r="D22" s="23">
+        <v>45530.0</v>
+      </c>
+      <c r="E22" s="23">
+        <v>45532.0</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="15">
-        <v>45530.0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>45532.0</v>
+      <c r="D23" s="23">
+        <v>45533.0</v>
+      </c>
+      <c r="E23" s="23">
+        <v>45533.0</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="C24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="15">
-        <v>45533.0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>45533.0</v>
+        <v>23</v>
+      </c>
+      <c r="D24" s="23">
+        <v>45534.0</v>
+      </c>
+      <c r="E24" s="23">
+        <v>45534.0</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="H24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="Q24" s="19"/>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="23">
         <v>45534.0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="23">
         <v>45534.0</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>78</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="23">
         <v>45535.0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="23">
         <v>45535.0</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="Q26" s="19"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="15">
-        <v>45537.0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>45537.0</v>
+      <c r="D27" s="23">
+        <v>45538.0</v>
+      </c>
+      <c r="E27" s="23">
+        <v>45538.0</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>50</v>
+      <c r="G27" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>84</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="Q27" s="19"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="23">
         <v>45538.0</v>
       </c>
-      <c r="E28" s="15">
-        <v>45538.0</v>
+      <c r="E28" s="23">
+        <v>45545.0</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>50</v>
+      <c r="G28" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>87</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="Q28" s="19"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="15">
-        <v>45538.0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>45538.0</v>
+      <c r="D29" s="23">
+        <v>45544.0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>45545.0</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="18">
-        <v>45539.0</v>
-      </c>
-      <c r="E30" s="19">
-        <v>45594.0</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="D30" s="23">
+        <v>45547.0</v>
+      </c>
+      <c r="E30" s="23">
+        <v>45547.0</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="Q30" s="19"/>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="25">
+        <v>45551.0</v>
+      </c>
+      <c r="E31" s="26">
+        <v>45584.0</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="28">
+        <v>45551.0</v>
+      </c>
+      <c r="E32" s="28">
+        <v>45551.0</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="E33" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="E34" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="E35" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="28">
+        <v>45558.0</v>
+      </c>
+      <c r="E36" s="28">
+        <v>45560.0</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="20">
-        <v>45539.0</v>
-      </c>
-      <c r="E31" s="21">
-        <v>45544.0</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="D37" s="28">
+        <v>45561.0</v>
+      </c>
+      <c r="E37" s="28">
+        <v>45563.0</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="21">
-        <v>45545.0</v>
-      </c>
-      <c r="E32" s="21">
+      <c r="D38" s="28">
+        <v>45561.0</v>
+      </c>
+      <c r="E38" s="28">
         <v>45563.0</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="F38" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="28">
+        <v>45565.0</v>
+      </c>
+      <c r="E39" s="28">
+        <v>45570.0</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="31"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="28">
+        <v>45572.0</v>
+      </c>
+      <c r="E40" s="28">
+        <v>45574.0</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="30"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="31"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="21">
-        <v>45565.0</v>
-      </c>
-      <c r="E33" s="21">
-        <v>45570.0</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="21">
-        <v>45572.0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>45574.0</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="21">
+      <c r="D41" s="28">
         <v>45575.0</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E41" s="28">
         <v>45577.0</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="21">
-        <v>45579.0</v>
-      </c>
-      <c r="E36" s="22">
-        <v>45581.0</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="22">
-        <v>45582.0</v>
-      </c>
-      <c r="E37" s="22">
-        <v>45582.0</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="22">
-        <v>45583.0</v>
-      </c>
-      <c r="E38" s="22">
-        <v>45583.0</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="23" t="s">
+      <c r="F41" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="22">
-        <v>45584.0</v>
-      </c>
-      <c r="E39" s="22">
-        <v>45584.0</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="26" t="s">
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="31"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="19">
-        <v>45586.0</v>
-      </c>
-      <c r="E40" s="18">
-        <v>45597.0</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" ht="41.25" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="B42" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="28">
+        <v>45577.0</v>
+      </c>
+      <c r="E42" s="28">
+        <v>45577.0</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="31"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="22">
-        <v>45586.0</v>
-      </c>
-      <c r="E41" s="22">
-        <v>45586.0</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" ht="41.25" customHeight="1">
-      <c r="A42" s="23" t="s">
+      <c r="B43" s="37" t="s">
         <v>118</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="22">
-        <v>45586.0</v>
-      </c>
-      <c r="E42" s="22">
-        <v>45586.0</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" ht="28.5" customHeight="1">
-      <c r="A43" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="28">
+        <v>45579.0</v>
+      </c>
+      <c r="E43" s="38">
+        <v>45581.0</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="31"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="38">
+        <v>45582.0</v>
+      </c>
+      <c r="E44" s="38">
+        <v>45582.0</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="30"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="31"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="38">
+        <v>45583.0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>45583.0</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="31"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="38">
+        <v>45584.0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>45584.0</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="31"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="38">
+        <v>45584.0</v>
+      </c>
+      <c r="E47" s="38">
+        <v>45584.0</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="31"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="41">
+        <v>45586.0</v>
+      </c>
+      <c r="E48" s="42">
+        <v>45597.0</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="31"/>
+    </row>
+    <row r="49" ht="41.25" customHeight="1">
+      <c r="A49" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="E49" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="31"/>
+    </row>
+    <row r="50" ht="41.25" customHeight="1">
+      <c r="A50" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="E50" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="31"/>
+    </row>
+    <row r="51" ht="41.25" customHeight="1">
+      <c r="A51" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="E51" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="31"/>
+    </row>
+    <row r="52" ht="41.25" customHeight="1">
+      <c r="A52" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="E52" s="38">
+        <v>45586.0</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="31"/>
+    </row>
+    <row r="53" ht="41.25" customHeight="1">
+      <c r="A53" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="38">
         <v>45587.0</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E53" s="38">
         <v>45587.0</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" ht="36.75" customHeight="1">
-      <c r="A44" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="F53" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="46"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="31"/>
+    </row>
+    <row r="54" ht="28.5" customHeight="1">
+      <c r="A54" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="22">
-        <v>45587.0</v>
-      </c>
-      <c r="E44" s="22">
-        <v>45587.0</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" ht="39.75" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="D54" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="E54" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J54" s="46"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="31"/>
+    </row>
+    <row r="55" ht="36.75" customHeight="1">
+      <c r="A55" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="E55" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="46"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="31"/>
+    </row>
+    <row r="56" ht="36.75" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="E56" s="38">
+        <v>45588.0</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="46"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="31"/>
+    </row>
+    <row r="57" ht="39.75" customHeight="1">
+      <c r="A57" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="38">
+        <v>45591.0</v>
+      </c>
+      <c r="E57" s="38">
+        <v>45594.0</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="46"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="31"/>
+    </row>
+    <row r="58" ht="39.75" customHeight="1">
+      <c r="A58" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="38">
+        <v>45591.0</v>
+      </c>
+      <c r="E58" s="38">
+        <v>45594.0</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="31"/>
+    </row>
+    <row r="59" ht="36.0" customHeight="1">
+      <c r="A59" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="38">
+        <v>45595.0</v>
+      </c>
+      <c r="E59" s="28">
+        <v>45597.0</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J59" s="46"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="31"/>
+    </row>
+    <row r="60" ht="36.0" customHeight="1">
+      <c r="A60" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="28">
+        <v>45597.0</v>
+      </c>
+      <c r="E60" s="28">
+        <v>45597.0</v>
+      </c>
+      <c r="F60" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="22">
-        <v>45588.0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>45594.0</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" ht="36.0" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="22">
-        <v>45595.0</v>
-      </c>
-      <c r="E46" s="21">
-        <v>45597.0</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="17">
+      <c r="G60" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="46"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="31"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="22">
         <v>45600.0</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E61" s="22">
+        <v>45615.0</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="28">
+        <v>45600.0</v>
+      </c>
+      <c r="E62" s="28">
+        <v>45604.0</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="28">
+        <v>45601.0</v>
+      </c>
+      <c r="E63" s="28">
         <v>45603.0</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="15">
-        <v>45600.0</v>
-      </c>
-      <c r="E48" s="15">
-        <v>45601.0</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="15">
-        <v>45602.0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>45603.0</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="15">
-        <v>45603.0</v>
-      </c>
-      <c r="E50" s="15">
-        <v>45603.0</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="28"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="28"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="28"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="28"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="28"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="28"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="28"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="28"/>
+      <c r="F63" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="28">
+        <v>45605.0</v>
+      </c>
+      <c r="E64" s="38">
+        <v>45611.0</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="38">
+        <v>45612.0</v>
+      </c>
+      <c r="E65" s="38">
+        <v>45613.0</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="38">
+        <v>45614.0</v>
+      </c>
+      <c r="E66" s="38">
+        <v>45615.0</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="52"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="52"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="52"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="52"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="52"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F48:H48"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="3" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>